--- a/DataBase/데이터모델링/제1정규화.xlsx
+++ b/DataBase/데이터모델링/제1정규화.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoWonJin\Desktop\developer-wonjin\Study\DataBase\데이터모델링\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23227C-450C-498F-8126-BE17B56D15BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D153F-6CE2-4BE7-8091-75C7E3A32786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27225" windowHeight="10170" activeTab="2" xr2:uid="{8220D4C0-54D1-4940-BFD1-84EDE2B55A8E}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27225" windowHeight="10170" activeTab="1" xr2:uid="{8220D4C0-54D1-4940-BFD1-84EDE2B55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="다가속성" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="107">
   <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>다가속성을 지님(전홤번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가속성 해결, 그러나 고객번호 고객명, 주민번호 중복발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,9 +166,6 @@
     <t>고객번호</t>
   </si>
   <si>
-    <t>주소</t>
-  </si>
-  <si>
     <t>주소_시도</t>
   </si>
   <si>
@@ -367,12 +360,130 @@
     <t>귀걸이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다가속성 해결, 그러나 고객번호 고객명, 주민번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복발생</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객번호</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4934-1343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서울시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF292934"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 중랑구 중랑천</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소_시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소_시군구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소_읍면동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소_리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소_산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소_주지번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소_부지번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF292934"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중랑구</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,16 +614,40 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="28"/>
+      <color rgb="FF292934"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color rgb="FF292934"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF292934"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -656,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +861,30 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -738,37 +897,28 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1087,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C820A04-7725-4EC8-A047-7EFA7B30402B}">
   <dimension ref="D4:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -1154,12 +1304,12 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -1177,13 +1327,13 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="30">
+      <c r="D13" s="6">
         <v>100</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1191,13 +1341,13 @@
       </c>
     </row>
     <row r="14" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="31">
+      <c r="D14" s="35">
         <v>100</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1205,13 +1355,13 @@
       </c>
     </row>
     <row r="15" spans="4:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="32">
+      <c r="D15" s="36">
         <v>100</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1248,14 +1398,14 @@
     </row>
     <row r="20" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="4:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="26" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1264,14 +1414,14 @@
       <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>79</v>
+      <c r="H21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1349,12 +1499,12 @@
     </row>
     <row r="32" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="4:13" ht="36" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="4:13" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D34" s="7" t="s">
@@ -1367,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="4:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1381,7 +1531,7 @@
         <v>1234</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="4:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1389,13 +1539,13 @@
         <v>101</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="9">
         <v>1235</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="4:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1403,30 +1553,30 @@
         <v>102</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="8">
         <v>1236</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="4:13" ht="36" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="H41" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="25"/>
-      <c r="L41" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="25"/>
+      <c r="D41" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="H41" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="L41" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="33"/>
     </row>
     <row r="42" spans="4:13" ht="154.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="7" t="s">
@@ -1442,13 +1592,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="4:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1471,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="4:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1479,7 +1629,7 @@
         <v>101</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="9">
         <v>1235</v>
@@ -1494,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="4:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1502,7 +1652,7 @@
         <v>102</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F45" s="8">
         <v>1236</v>
@@ -1535,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373BE7A7-3CF7-4323-9523-1572438F277D}">
-  <dimension ref="B1:I48"/>
+  <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1548,14 +1698,18 @@
     <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="8" max="8" width="42.75" customWidth="1"/>
     <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="11" width="20.75" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
+    <col min="13" max="13" width="30.875" customWidth="1"/>
+    <col min="14" max="14" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7">
         <v>100</v>
       </c>
@@ -1577,20 +1731,20 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>2</v>
@@ -1599,162 +1753,245 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="2:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="E10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="42.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="7">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
+      <c r="C13" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16"/>
+      <c r="C14" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="E17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
-      <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="36" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="2:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="C19" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29" t="s">
+    <row r="21" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29" t="s">
+    <row r="24" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16"/>
       <c r="C25" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16"/>
       <c r="C27" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:6" ht="36" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="E30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="2:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:14" ht="36" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="E30" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="2:14" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="16"/>
       <c r="C32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="29" t="s">
-        <v>49</v>
+      <c r="F32" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1763,77 +2000,77 @@
         <v>4</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="29" t="s">
-        <v>50</v>
+      <c r="F33" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="29" t="s">
-        <v>51</v>
+      <c r="F34" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="16"/>
       <c r="C35" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="29" t="s">
-        <v>52</v>
+      <c r="F35" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16"/>
       <c r="C37" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="2:9" ht="36" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="E41" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="H41" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="25"/>
+      <c r="B41" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="E41" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="H41" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="33"/>
     </row>
     <row r="42" spans="2:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="E42" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1842,14 +2079,14 @@
         <v>2</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1858,62 +2095,62 @@
         <v>4</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="36" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="2:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="16"/>
       <c r="C46" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="16"/>
       <c r="C48" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +2174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E551A077-78D5-43CB-B00C-15CFE2EBC292}">
   <dimension ref="B4:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1956,34 +2193,34 @@
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1998,22 +2235,22 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2028,19 +2265,19 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="3">
         <v>2</v>
@@ -2048,39 +2285,39 @@
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
         <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2097,16 +2334,16 @@
         <v>1234</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="15">
         <v>2</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2123,16 +2360,16 @@
         <v>1234</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="8">
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -2140,16 +2377,16 @@
         <v>1235</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="22">
         <v>1</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>89</v>
+        <v>67</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -2157,16 +2394,16 @@
         <v>1235</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="6:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -2174,16 +2411,16 @@
         <v>1235</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>91</v>
+        <v>71</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
